--- a/Statisztika.xlsx
+++ b/Statisztika.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Fajta száma</t>
   </si>
@@ -41,31 +41,25 @@
     <t>+</t>
   </si>
   <si>
-    <t>Kondi</t>
-  </si>
-  <si>
-    <t>Némó</t>
+    <t>Czeglédi</t>
+  </si>
+  <si>
+    <t>Gönczi</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>Suncrest</t>
-  </si>
-  <si>
-    <t>Szoboszlói</t>
-  </si>
-  <si>
-    <t>Margó</t>
-  </si>
-  <si>
-    <t>Paladin</t>
-  </si>
-  <si>
-    <t>Linamarin</t>
-  </si>
-  <si>
-    <t>Timi</t>
+    <t>Harmat</t>
+  </si>
+  <si>
+    <t>Csillag</t>
+  </si>
+  <si>
+    <t>Vidor</t>
+  </si>
+  <si>
+    <t>Izsáki sárfehér</t>
   </si>
 </sst>
 </file>
@@ -110,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -144,7 +138,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -153,24 +147,24 @@
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>6.089</v>
+        <v>5.34548901098901</v>
       </c>
       <c r="E2" t="n">
         <v>4.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.587</v>
+        <v>0.25654385784162265</v>
       </c>
       <c r="G2" t="n">
-        <v>9.6</v>
+        <v>4.8</v>
       </c>
       <c r="H2" t="n">
-        <v>106.5</v>
+        <v>110.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -179,24 +173,24 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>6.087</v>
+        <v>4.607808379120879</v>
       </c>
       <c r="E3" t="n">
         <v>4.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.173</v>
+        <v>0.2115359349115844</v>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>4.6</v>
       </c>
       <c r="H3" t="n">
-        <v>106.5</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -205,50 +199,50 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>5.857</v>
+        <v>4.5486881868131865</v>
       </c>
       <c r="E4" t="n">
         <v>4.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.437</v>
+        <v>0.26225511646695177</v>
       </c>
       <c r="G4" t="n">
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="H4" t="n">
-        <v>102.5</v>
+        <v>94.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>5.756</v>
+        <v>4.516759615384615</v>
       </c>
       <c r="E5" t="n">
         <v>4.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.21</v>
+        <v>0.35912212766649093</v>
       </c>
       <c r="G5" t="n">
-        <v>3.6</v>
+        <v>8.0</v>
       </c>
       <c r="H5" t="n">
-        <v>100.7</v>
+        <v>93.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -257,24 +251,24 @@
         <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>5.738</v>
+        <v>4.387844093406593</v>
       </c>
       <c r="E6" t="n">
         <v>4.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.43</v>
+        <v>0.3987447946110366</v>
       </c>
       <c r="G6" t="n">
-        <v>7.5</v>
+        <v>9.1</v>
       </c>
       <c r="H6" t="n">
-        <v>100.4</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -283,71 +277,19 @@
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>5.312</v>
+        <v>3.5568241758241754</v>
       </c>
       <c r="E7" t="n">
         <v>4.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.096</v>
+        <v>0.5955354295822674</v>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>16.7</v>
       </c>
       <c r="H7" t="n">
-        <v>92.9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4.969</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.416</v>
-      </c>
-      <c r="G8" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="H8" t="n">
-        <v>86.9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4.845</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.495</v>
-      </c>
-      <c r="G9" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>84.8</v>
+        <v>73.7</v>
       </c>
     </row>
   </sheetData>

--- a/Statisztika.xlsx
+++ b/Statisztika.xlsx
@@ -14,52 +14,52 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
-    <t>Fajta száma</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>Fajta neve</t>
-  </si>
-  <si>
-    <t>Átlag termés (t/ha)</t>
-  </si>
-  <si>
-    <t>Ismétlés (n)</t>
-  </si>
-  <si>
-    <t>Szórás (s)</t>
+    <t>Entry</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Average yield (t/ha)</t>
+  </si>
+  <si>
+    <t>Replication (n)</t>
+  </si>
+  <si>
+    <t>Standard deviation (s)</t>
   </si>
   <si>
     <t>CV (s%)</t>
   </si>
   <si>
-    <t>Standard (%)</t>
+    <t>Check (%)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Big ear</t>
+  </si>
+  <si>
+    <t>Pax</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t>Czeglédi</t>
-  </si>
-  <si>
-    <t>Gönczi</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Harmat</t>
-  </si>
-  <si>
-    <t>Csillag</t>
-  </si>
-  <si>
-    <t>Vidor</t>
-  </si>
-  <si>
-    <t>Izsáki sárfehér</t>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>Manitou</t>
+  </si>
+  <si>
+    <t>Dwarf</t>
+  </si>
+  <si>
+    <t>Van</t>
   </si>
 </sst>
 </file>
@@ -138,7 +138,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -147,24 +147,24 @@
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>5.34548901098901</v>
+        <v>5.8821188186813185</v>
       </c>
       <c r="E2" t="n">
         <v>4.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.25654385784162265</v>
+        <v>0.2892687129562473</v>
       </c>
       <c r="G2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H2" t="n">
-        <v>110.8</v>
+        <v>126.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -173,24 +173,24 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>4.607808379120879</v>
+        <v>5.334774038461538</v>
       </c>
       <c r="E3" t="n">
         <v>4.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2115359349115844</v>
+        <v>0.37834404355548606</v>
       </c>
       <c r="G3" t="n">
-        <v>4.6</v>
+        <v>7.1</v>
       </c>
       <c r="H3" t="n">
-        <v>95.5</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -199,19 +199,19 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>4.5486881868131865</v>
+        <v>5.100879807692308</v>
       </c>
       <c r="E4" t="n">
         <v>4.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.26225511646695177</v>
+        <v>0.21362158932039593</v>
       </c>
       <c r="G4" t="n">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
-        <v>94.3</v>
+        <v>109.4</v>
       </c>
     </row>
     <row r="5">
@@ -219,30 +219,30 @@
         <v>1.0</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>4.516759615384615</v>
+        <v>4.453950549450549</v>
       </c>
       <c r="E5" t="n">
         <v>4.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.35912212766649093</v>
+        <v>0.3727978889026794</v>
       </c>
       <c r="G5" t="n">
-        <v>8.0</v>
+        <v>8.4</v>
       </c>
       <c r="H5" t="n">
-        <v>93.6</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -251,19 +251,19 @@
         <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>4.387844093406593</v>
+        <v>4.434572115384615</v>
       </c>
       <c r="E6" t="n">
         <v>4.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3987447946110366</v>
+        <v>0.3698095690540172</v>
       </c>
       <c r="G6" t="n">
-        <v>9.1</v>
+        <v>8.3</v>
       </c>
       <c r="H6" t="n">
-        <v>91.0</v>
+        <v>95.1</v>
       </c>
     </row>
     <row r="7">
@@ -271,25 +271,25 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>3.5568241758241754</v>
+        <v>3.5572267857142856</v>
       </c>
       <c r="E7" t="n">
         <v>4.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5955354295822674</v>
+        <v>0.3547916904380771</v>
       </c>
       <c r="G7" t="n">
-        <v>16.7</v>
+        <v>10.0</v>
       </c>
       <c r="H7" t="n">
-        <v>73.7</v>
+        <v>76.3</v>
       </c>
     </row>
   </sheetData>
